--- a/biology/Zoologie/Dindon_Blanc_de_Virginie/Dindon_Blanc_de_Virginie.xlsx
+++ b/biology/Zoologie/Dindon_Blanc_de_Virginie/Dindon_Blanc_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Blanc de Virginie (en anglais : White Holland) est une race de dindon originaire des États-Unis. On le retrouve également sous l'appellation dindon blanc de Hollande.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race descend de dindons blancs importés d'Europe. La race est reconnue par l'American Poultry Association en 1874[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race descend de dindons blancs importés d'Europe. La race est reconnue par l'American Poultry Association en 1874.
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est une race blanche de grande taille, moins lourde que le Dindon bronzé d'Amérique, mais plus imposante que le Blanc de Beltsville.
-Standard
-Dindon : jusqu'à 15 kg[1]
-Dinde : jusqu'à 8 kg[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race blanche de grande taille, moins lourde que le Dindon bronzé d'Amérique, mais plus imposante que le Blanc de Beltsville.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dindon_Blanc_de_Virginie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dindon_Blanc_de_Virginie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dindon : jusqu'à 15 kg
+Dinde : jusqu'à 8 kg</t>
         </is>
       </c>
     </row>
